--- a/Tracking.xlsx
+++ b/Tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/vanells1_msu_edu/Documents/FS18/STT_481/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jess VanElls\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{52EDA9F1-77C9-4E1A-A2A5-85891ED2E9C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{42A9E539-8F90-4606-ACDC-CDBC8C0ED0D1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F8961A-91DE-45EB-956C-E229C5C4EE70}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3490" xr2:uid="{44687879-1A01-41CD-969F-AC0853A307EF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6300" xr2:uid="{44687879-1A01-41CD-969F-AC0853A307EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Who</t>
   </si>
@@ -44,19 +44,34 @@
     <t>Model</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Jess</t>
   </si>
   <si>
-    <t>KNN</t>
-  </si>
-  <si>
-    <t>K=sqrt(n)/2; using only quantitative (not scale) variables</t>
-  </si>
-  <si>
-    <t>K=sqrt(n); using only quantitative (not scale) variables</t>
+    <t>Forward stepwise AdjR2</t>
+  </si>
+  <si>
+    <t>Forward stepwise BIC</t>
+  </si>
+  <si>
+    <t>Forward stepwise Cp</t>
+  </si>
+  <si>
+    <t>Backward stepwise AdjR2</t>
+  </si>
+  <si>
+    <t>Backward stepwise BIC</t>
+  </si>
+  <si>
+    <t>Backward stepwise Cp</t>
+  </si>
+  <si>
+    <t>Grade (/10)</t>
+  </si>
+  <si>
+    <t>KNN sqrt(n)/2 quantitative only</t>
+  </si>
+  <si>
+    <t>KNN sqrt(n) quantitative only</t>
   </si>
 </sst>
 </file>
@@ -100,11 +115,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,19 +435,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA841F9-98DB-4ACC-A6AA-FEF63847A2F9}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -439,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -455,14 +471,15 @@
       <c r="A2">
         <v>0.40261000000000002</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
+      <c r="B2" s="4">
+        <f>MAX(0.15, 0.12/A2*10)</f>
+        <v>2.9805518988599387</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3">
         <v>43359</v>
@@ -472,17 +489,126 @@
       <c r="A3">
         <v>0.39106000000000002</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
+      <c r="B3" s="4">
+        <f t="shared" ref="B3:B9" si="0">MAX(0.15, 0.12/A3*10)</f>
+        <v>3.0685828261647825</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3">
         <v>43359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0.29415000000000002</v>
+      </c>
+      <c r="B4" s="4">
+        <f t="shared" si="0"/>
+        <v>4.0795512493625701</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3">
+        <v>43397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0.22727</v>
+      </c>
+      <c r="B5" s="4">
+        <f t="shared" si="0"/>
+        <v>5.2800633607603285</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>43397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0.22928000000000001</v>
+      </c>
+      <c r="B6" s="4">
+        <f t="shared" si="0"/>
+        <v>5.2337752965805997</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3">
+        <v>43397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0.21879000000000001</v>
+      </c>
+      <c r="B7" s="4">
+        <f t="shared" si="0"/>
+        <v>5.4847113670643077</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3">
+        <v>43397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>0.23554</v>
+      </c>
+      <c r="B8" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0946760635136279</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>43397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>0.21734000000000001</v>
+      </c>
+      <c r="B9" s="4">
+        <f t="shared" si="0"/>
+        <v>5.5213030275144925</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>43397</v>
       </c>
     </row>
   </sheetData>

--- a/Tracking.xlsx
+++ b/Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jess VanElls\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F8961A-91DE-45EB-956C-E229C5C4EE70}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD915EDE-7190-4690-8197-5AD335DB76E1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6300" xr2:uid="{44687879-1A01-41CD-969F-AC0853A307EF}"/>
   </bookViews>
@@ -38,9 +38,6 @@
     <t>When</t>
   </si>
   <si>
-    <t>RMLSE</t>
-  </si>
-  <si>
     <t>Model</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>KNN sqrt(n) quantitative only</t>
+  </si>
+  <si>
+    <t>RMSLE</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -452,13 +452,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -476,10 +476,10 @@
         <v>2.9805518988599387</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="3">
         <v>43359</v>
@@ -494,10 +494,10 @@
         <v>3.0685828261647825</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3">
         <v>43359</v>
@@ -512,10 +512,10 @@
         <v>4.0795512493625701</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="3">
         <v>43397</v>
@@ -530,10 +530,10 @@
         <v>5.2800633607603285</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="3">
         <v>43397</v>
@@ -548,10 +548,10 @@
         <v>5.2337752965805997</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="3">
         <v>43397</v>
@@ -566,10 +566,10 @@
         <v>5.4847113670643077</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" s="3">
         <v>43397</v>
@@ -584,10 +584,10 @@
         <v>5.0946760635136279</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" s="3">
         <v>43397</v>
@@ -602,10 +602,10 @@
         <v>5.5213030275144925</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="3">
         <v>43397</v>
